--- a/public/Problems.xlsx
+++ b/public/Problems.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ФИО</t>
   </si>
@@ -68,6 +68,39 @@
   </si>
   <si>
     <t>насрал на стол</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>нолриуммыдир</t>
+  </si>
+  <si>
+    <t>ямы</t>
+  </si>
+  <si>
+    <t>ывф</t>
+  </si>
+  <si>
+    <t>цфма</t>
+  </si>
+  <si>
+    <t>yfc</t>
+  </si>
+  <si>
+    <t>hfs</t>
+  </si>
+  <si>
+    <t>yf cnjk</t>
   </si>
 </sst>
 </file>
@@ -448,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F11" sqref="F11"/>
@@ -541,6 +574,74 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
